--- a/biology/Botanique/Pimelea_calcicola/Pimelea_calcicola.xlsx
+++ b/biology/Botanique/Pimelea_calcicola/Pimelea_calcicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimelea calcicola est une espèce de plante vivace appartenant à la famille des Thymelaeaceae endémique dans le sud-ouest de l'Australie-Occidentale.
 C'est un buisson de 20 cm à 1 m de haut dont les fleurs blanches apparaissent de septembre à décembre.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est présente uniquement aux alentours de Perth[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est présente uniquement aux alentours de Perth.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Russell Barrett et Eng Pin Tay, Perth Plants: A Field Guide to the Bushland and Coastal Flora of Kings Park and Bold Park, Csiro Publishing, avril 2016 (ISBN 978-1-4863-0603-9, lire en ligne)
@@ -575,7 +591,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
